--- a/物料清单汇总/呼叫器新增物料清单.xlsx
+++ b/物料清单汇总/呼叫器新增物料清单.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$9</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -31,7 +34,7 @@
   </si>
   <si>
     <t>510Ω/5%/0805</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>CN5</t>
@@ -41,27 +44,27 @@
   </si>
   <si>
     <t>Header1*5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>CN51</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Header1*6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>PIN-S-2.54-1*6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>USB_B_90D</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>p6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -134,70 +137,70 @@
       </rPr>
       <t>度</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>白色，排针座，5X1针，单排，XH2.54mm间距</t>
   </si>
   <si>
     <t>白色，排针座，5X1针，单排，XH2.54mm间距</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>白色，排针座，6X1针，单排，XH2.54mm间距</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1*5 白色排线</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>5*1P，公头排线,间距2.54mm,线长30cm</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1*6 白色排线</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>6*1P，公头排线,间距2.54mm,线长30cm</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1*5/HX25003-A</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>1*6/HX25003-A</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>白色，插头，6X1针，单排，XH2.54mm间距</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>封装</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>Designator</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>详细</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>PIN-S-2.54-1*6</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -214,24 +217,32 @@
       </rPr>
       <t>11</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>CN5</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -735,168 +746,168 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="41" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,7 +1249,7 @@
   <dimension ref="A1:CZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1609,13 +1620,13 @@
         <v>13</v>
       </c>
       <c r="F9" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1627,7 +1638,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1640,7 +1651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/物料清单汇总/呼叫器新增物料清单.xlsx
+++ b/物料清单汇总/呼叫器新增物料清单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>R0805</t>
   </si>
@@ -47,15 +47,7 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>CN51</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>Header1*6</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIN-S-2.54-1*6</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -141,9 +133,6 @@
   </si>
   <si>
     <t>白色，排针座，5X1针，单排，XH2.54mm间距</t>
-  </si>
-  <si>
-    <t>白色，排针座，5X1针，单排，XH2.54mm间距</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -172,10 +161,6 @@
   </si>
   <si>
     <t>1*6/HX25003-A</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色，插头，6X1针，单排，XH2.54mm间距</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -873,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -895,9 +880,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CZ9"/>
+  <dimension ref="A1:CZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1262,20 +1244,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="39" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1386,10 +1368,10 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1498,128 +1480,88 @@
       <c r="CZ2" s="1"/>
     </row>
     <row r="3" spans="1:104">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
+      <c r="A3" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
+      <c r="C3" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:104">
-      <c r="A4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:104">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:104">
-      <c r="A6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:104">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:104">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:104">
-      <c r="A9" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="F7" s="9">
         <v>50</v>
       </c>
     </row>
